--- a/medicine/Enfance/Hélène_Montardre/Hélène_Montardre.xlsx
+++ b/medicine/Enfance/Hélène_Montardre/Hélène_Montardre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Montardre</t>
+          <t>Hélène_Montardre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hélène Montardre est une femme de lettres française née le 12 novembre 1954 à Montreuil, elle a obtenu un doctorat en anglais[1]. Les principaux thèmes qu'elle aborde dans ses romans sont les animaux et la mythologie grecque.
-Elle était la fille de l'écrivain Georges Montforez[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hélène Montardre est une femme de lettres française née le 12 novembre 1954 à Montreuil, elle a obtenu un doctorat en anglais. Les principaux thèmes qu'elle aborde dans ses romans sont les animaux et la mythologie grecque.
+Elle était la fille de l'écrivain Georges Montforez.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Montardre</t>
+          <t>Hélène_Montardre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en novembre 1954 à Montreuil. Hélène Montardre est diplômée d'un doctorat d'anglais de l'Université de Clermont-Ferrand. 
-Après ses études, elle exerce différents métiers (enseignante, guide culturel en Italie et en Grèce, directrice éditoriale)[3]. En parallèle, elle voyage beaucoup en Europe, en Afrique, en Amérique du Nord.
-Sa passion pour la littérature de jeunesse l'incite à reprendre ses études et à soutenir en 1999 une thèse sous la direction de Jean Perrot à l'université de Paris 13 : L'image des personnages féminins dans la littérature de jeunesse française contemporaine de 1975 à 1995[4].
-Hélène Montardre a déjà publié une vingtaine de livres pour la jeunesse : albums, contes, documentaires, romans. On y retrouve souvent les thèmes des animaux, de l'Histoire, de la mythologie[5].
+Après ses études, elle exerce différents métiers (enseignante, guide culturel en Italie et en Grèce, directrice éditoriale). En parallèle, elle voyage beaucoup en Europe, en Afrique, en Amérique du Nord.
+Sa passion pour la littérature de jeunesse l'incite à reprendre ses études et à soutenir en 1999 une thèse sous la direction de Jean Perrot à l'université de Paris 13 : L'image des personnages féminins dans la littérature de jeunesse française contemporaine de 1975 à 1995.
+Hélène Montardre a déjà publié une vingtaine de livres pour la jeunesse : albums, contes, documentaires, romans. On y retrouve souvent les thèmes des animaux, de l'Histoire, de la mythologie.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Montardre</t>
+          <t>Hélène_Montardre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Quelques récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Goya découverte 2015[6] pour Courir avec des ailes de géants
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Goya découverte 2015 pour Courir avec des ailes de géants
 Prix des moins de 25 ans 1974 pour Les Garçons sous la lande</t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Montardre</t>
+          <t>Hélène_Montardre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pégase, le cheval des dieux, Nathan, 2019[7]
-Marche à l'étoile, Rageot, 448 p.[8]
-Courir avec des ailes de géants, édition Rageot, 2014  — Prix Goya découverte 2015[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pégase, le cheval des dieux, Nathan, 2019
+Marche à l'étoile, Rageot, 448 p.
+Courir avec des ailes de géants, édition Rageot, 2014  — Prix Goya découverte 2015
 Alexandre le grand, Jusqu'au bout du monde, édition Nathan, août 2013
 Pégase l'indomptable, Nathan, janvier 2013  (ISBN 2092538055)
 Les Volcans racontés aux enfants , La Martiniere, juin 2012  (ISBN 2732451223)
